--- a/medicine/Mort/Cimetière_le_repos_Saint-François_d'Assise/Cimetière_le_repos_Saint-François_d'Assise.xlsx
+++ b/medicine/Mort/Cimetière_le_repos_Saint-François_d'Assise/Cimetière_le_repos_Saint-François_d'Assise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_le_repos_Saint-Fran%C3%A7ois_d%27Assise</t>
+          <t>Cimetière_le_repos_Saint-François_d'Assise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le repos Saint-François d'Assise[1] est un cimetière de Montréal situé sur la rue Sherbrooke Est dans l'arrondissement d'Anjou.
+Le repos Saint-François d'Assise est un cimetière de Montréal situé sur la rue Sherbrooke Est dans l'arrondissement d'Anjou.
 Le repos Saint-François d'Assise comporte : un cimetière, un crématorium, des mausolées et des columbariums.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_le_repos_Saint-Fran%C3%A7ois_d%27Assise</t>
+          <t>Cimetière_le_repos_Saint-François_d'Assise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le repos Saint-François d'Assise s'inscrit dans un terrain rectangulaire bordé par :
 la rue Sherbrooke, au sud
 la rue Beaubien, au nord
 la rue Mignault, à l'ouest
-la rue Radisson, à l'est[2]
+la rue Radisson, à l'est
 Deux stations de métro sont à proximité : Langelier et Radisson.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_le_repos_Saint-Fran%C3%A7ois_d%27Assise</t>
+          <t>Cimetière_le_repos_Saint-François_d'Assise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,9 +563,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière a été fondé en 1916 sous le nom de Cimetière de l'est[3]. Il est l'héritier de l'ancien cimetière situé près de la première église Saint-François d'Assise de la Longue-Pointe où les pionniers de la paroisse ont été inhumés à partir de 1724[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière a été fondé en 1916 sous le nom de Cimetière de l'est. Il est l'héritier de l'ancien cimetière situé près de la première église Saint-François d'Assise de la Longue-Pointe où les pionniers de la paroisse ont été inhumés à partir de 1724.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_le_repos_Saint-Fran%C3%A7ois_d%27Assise</t>
+          <t>Cimetière_le_repos_Saint-François_d'Assise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hubert Aquin , écrivain, réalisateur et producteur.
 Jacques Beauchamp, journaliste sportif
